--- a/Gant.xlsx
+++ b/Gant.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{C70EB068-7C8B-40E0-BD01-A81EB15570F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6608FB6-EC62-416F-B7DA-F97ED6BEADCC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -219,22 +219,46 @@
     <t>Meeting</t>
   </si>
   <si>
-    <t>Study</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Maintenance</t>
-  </si>
-  <si>
     <t>Set up</t>
   </si>
   <si>
-    <t>Development</t>
+    <t>First prototype</t>
+  </si>
+  <si>
+    <t>Website UI</t>
+  </si>
+  <si>
+    <t>Domain Name</t>
+  </si>
+  <si>
+    <t>Hosting</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Second Prototype</t>
+  </si>
+  <si>
+    <t>Player Search</t>
+  </si>
+  <si>
+    <t>UI for search</t>
+  </si>
+  <si>
+    <t>Third Prototype</t>
+  </si>
+  <si>
+    <t>Gun Stats</t>
+  </si>
+  <si>
+    <t>Character Stats</t>
+  </si>
+  <si>
+    <t>Final Prototype</t>
+  </si>
+  <si>
+    <t>Finalization</t>
   </si>
 </sst>
 </file>
@@ -414,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +503,30 @@
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -633,7 +681,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -848,6 +896,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -855,17 +915,53 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="13" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="13" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="14" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="14" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="15" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="15" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1433,11 +1529,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL25"/>
+  <dimension ref="A1:BL31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1488,117 +1584,117 @@
       <c r="B3" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="82">
+      <c r="D3" s="81"/>
+      <c r="E3" s="79">
         <v>44105</v>
       </c>
-      <c r="F3" s="82"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="77"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="79">
+      <c r="I4" s="76">
         <f>I5</f>
         <v>44102</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="79">
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="76">
         <f>P5</f>
         <v>44109</v>
       </c>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="79">
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="76">
         <f>W5</f>
         <v>44116</v>
       </c>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="79">
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="76">
         <f>AD5</f>
         <v>44123</v>
       </c>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="79">
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="76">
         <f>AK5</f>
         <v>44130</v>
       </c>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="80"/>
-      <c r="AQ4" s="81"/>
-      <c r="AR4" s="79">
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="78"/>
+      <c r="AR4" s="76">
         <f>AR5</f>
         <v>44137</v>
       </c>
-      <c r="AS4" s="80"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="81"/>
-      <c r="AY4" s="79">
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="77"/>
+      <c r="AX4" s="78"/>
+      <c r="AY4" s="76">
         <f>AY5</f>
         <v>44144</v>
       </c>
-      <c r="AZ4" s="80"/>
-      <c r="BA4" s="80"/>
-      <c r="BB4" s="80"/>
-      <c r="BC4" s="80"/>
-      <c r="BD4" s="80"/>
-      <c r="BE4" s="81"/>
-      <c r="BF4" s="79">
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="77"/>
+      <c r="BB4" s="77"/>
+      <c r="BC4" s="77"/>
+      <c r="BD4" s="77"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="76">
         <f>BF5</f>
         <v>44151</v>
       </c>
-      <c r="BG4" s="80"/>
-      <c r="BH4" s="80"/>
-      <c r="BI4" s="80"/>
-      <c r="BJ4" s="80"/>
-      <c r="BK4" s="80"/>
-      <c r="BL4" s="81"/>
+      <c r="BG4" s="77"/>
+      <c r="BH4" s="77"/>
+      <c r="BI4" s="77"/>
+      <c r="BJ4" s="77"/>
+      <c r="BK4" s="77"/>
+      <c r="BL4" s="78"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44102</v>
@@ -2144,7 +2240,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C8" s="65"/>
       <c r="D8" s="19"/>
@@ -2152,7 +2248,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H22" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H28" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="39"/>
@@ -2612,7 +2708,7 @@
         <v>38</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C14" s="67"/>
       <c r="D14" s="24"/>
@@ -2683,7 +2779,7 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="54"/>
       <c r="B15" s="73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C15" s="68"/>
       <c r="D15" s="27">
@@ -2762,7 +2858,7 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="53"/>
       <c r="B16" s="73" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C16" s="68"/>
       <c r="D16" s="27">
@@ -2841,23 +2937,18 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="53"/>
       <c r="B17" s="73" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C17" s="68"/>
       <c r="D17" s="27"/>
       <c r="E17" s="62">
-        <f>F16</f>
-        <v>44137</v>
+        <v>44134</v>
       </c>
       <c r="F17" s="62">
-        <f>E17+3</f>
-        <v>44140</v>
+        <v>44166</v>
       </c>
       <c r="G17" s="17"/>
-      <c r="H17" s="17">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
+      <c r="H17" s="17"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
       <c r="K17" s="39"/>
@@ -2870,8 +2961,8 @@
       <c r="R17" s="39"/>
       <c r="S17" s="39"/>
       <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
       <c r="W17" s="39"/>
       <c r="X17" s="39"/>
       <c r="Y17" s="39"/>
@@ -2916,20 +3007,24 @@
       <c r="BL17" s="39"/>
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="68"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="62">
+        <f>F16</f>
+        <v>44137</v>
+      </c>
+      <c r="F18" s="62">
+        <f>E18+3</f>
+        <v>44140</v>
+      </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="17" t="str">
+      <c r="H18" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
@@ -2989,23 +3084,20 @@
       <c r="BL18" s="39"/>
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="53"/>
-      <c r="B19" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="63">
-        <v>44136</v>
-      </c>
-      <c r="F19" s="63">
-        <f>E19+5</f>
-        <v>44141</v>
-      </c>
+      <c r="A19" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="69"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="17">
+      <c r="H19" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
@@ -3067,22 +3159,21 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="53"/>
       <c r="B20" s="74" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C20" s="70"/>
       <c r="D20" s="32"/>
       <c r="E20" s="63">
-        <f>F19+1</f>
-        <v>44142</v>
+        <v>44136</v>
       </c>
       <c r="F20" s="63">
-        <f>E20+4</f>
-        <v>44146</v>
+        <f>E20+5</f>
+        <v>44141</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="39"/>
@@ -3142,18 +3233,24 @@
       <c r="BL20" s="39"/>
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="70"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="63">
+        <f>F20+1</f>
+        <v>44142</v>
+      </c>
+      <c r="F21" s="63">
+        <f>E21+4</f>
+        <v>44146</v>
+      </c>
       <c r="G21" s="17"/>
-      <c r="H21" s="17" t="str">
+      <c r="H21" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I21" s="39"/>
       <c r="J21" s="39"/>
@@ -3213,90 +3310,518 @@
       <c r="BL21" s="39"/>
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38" t="str">
+      <c r="A22" s="53"/>
+      <c r="B22" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="39"/>
+      <c r="AM22" s="39"/>
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="39"/>
+      <c r="AP22" s="39"/>
+      <c r="AQ22" s="39"/>
+      <c r="AR22" s="39"/>
+      <c r="AS22" s="39"/>
+      <c r="AT22" s="39"/>
+      <c r="AU22" s="39"/>
+      <c r="AV22" s="39"/>
+      <c r="AW22" s="39"/>
+      <c r="AX22" s="39"/>
+      <c r="AY22" s="39"/>
+      <c r="AZ22" s="39"/>
+      <c r="BA22" s="39"/>
+      <c r="BB22" s="39"/>
+      <c r="BC22" s="39"/>
+      <c r="BD22" s="39"/>
+      <c r="BE22" s="39"/>
+      <c r="BF22" s="39"/>
+      <c r="BG22" s="39"/>
+      <c r="BH22" s="39"/>
+      <c r="BI22" s="39"/>
+      <c r="BJ22" s="39"/>
+      <c r="BK22" s="39"/>
+      <c r="BL22" s="39"/>
+    </row>
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="53"/>
+      <c r="B23" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86">
+        <v>44146</v>
+      </c>
+      <c r="F23" s="86">
+        <v>44151</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="39"/>
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="39"/>
+      <c r="AJ23" s="39"/>
+      <c r="AK23" s="39"/>
+      <c r="AL23" s="39"/>
+      <c r="AM23" s="39"/>
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="39"/>
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="39"/>
+      <c r="AR23" s="39"/>
+      <c r="AS23" s="39"/>
+      <c r="AT23" s="39"/>
+      <c r="AU23" s="39"/>
+      <c r="AV23" s="39"/>
+      <c r="AW23" s="39"/>
+      <c r="AX23" s="39"/>
+      <c r="AY23" s="39"/>
+      <c r="AZ23" s="39"/>
+      <c r="BA23" s="39"/>
+      <c r="BB23" s="39"/>
+      <c r="BC23" s="39"/>
+      <c r="BD23" s="39"/>
+      <c r="BE23" s="39"/>
+      <c r="BF23" s="39"/>
+      <c r="BG23" s="39"/>
+      <c r="BH23" s="39"/>
+      <c r="BI23" s="39"/>
+      <c r="BJ23" s="39"/>
+      <c r="BK23" s="39"/>
+      <c r="BL23" s="39"/>
+    </row>
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="53"/>
+      <c r="B24" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86">
+        <v>44149</v>
+      </c>
+      <c r="F24" s="86">
+        <v>44153</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="39"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="39"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="39"/>
+      <c r="AR24" s="39"/>
+      <c r="AS24" s="39"/>
+      <c r="AT24" s="39"/>
+      <c r="AU24" s="39"/>
+      <c r="AV24" s="39"/>
+      <c r="AW24" s="39"/>
+      <c r="AX24" s="39"/>
+      <c r="AY24" s="39"/>
+      <c r="AZ24" s="39"/>
+      <c r="BA24" s="39"/>
+      <c r="BB24" s="39"/>
+      <c r="BC24" s="39"/>
+      <c r="BD24" s="39"/>
+      <c r="BE24" s="39"/>
+      <c r="BF24" s="39"/>
+      <c r="BG24" s="39"/>
+      <c r="BH24" s="39"/>
+      <c r="BI24" s="39"/>
+      <c r="BJ24" s="39"/>
+      <c r="BK24" s="39"/>
+      <c r="BL24" s="39"/>
+    </row>
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="53"/>
+      <c r="B25" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39"/>
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="39"/>
+      <c r="AT25" s="39"/>
+      <c r="AU25" s="39"/>
+      <c r="AV25" s="39"/>
+      <c r="AW25" s="39"/>
+      <c r="AX25" s="39"/>
+      <c r="AY25" s="39"/>
+      <c r="AZ25" s="39"/>
+      <c r="BA25" s="39"/>
+      <c r="BB25" s="39"/>
+      <c r="BC25" s="39"/>
+      <c r="BD25" s="39"/>
+      <c r="BE25" s="39"/>
+      <c r="BF25" s="39"/>
+      <c r="BG25" s="39"/>
+      <c r="BH25" s="39"/>
+      <c r="BI25" s="39"/>
+      <c r="BJ25" s="39"/>
+      <c r="BK25" s="39"/>
+      <c r="BL25" s="39"/>
+    </row>
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="53"/>
+      <c r="B26" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="94"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="96">
+        <v>44155</v>
+      </c>
+      <c r="F26" s="96">
+        <v>44166</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="39"/>
+      <c r="AF26" s="39"/>
+      <c r="AG26" s="39"/>
+      <c r="AH26" s="39"/>
+      <c r="AI26" s="39"/>
+      <c r="AJ26" s="39"/>
+      <c r="AK26" s="39"/>
+      <c r="AL26" s="39"/>
+      <c r="AM26" s="39"/>
+      <c r="AN26" s="39"/>
+      <c r="AO26" s="39"/>
+      <c r="AP26" s="39"/>
+      <c r="AQ26" s="39"/>
+      <c r="AR26" s="39"/>
+      <c r="AS26" s="39"/>
+      <c r="AT26" s="39"/>
+      <c r="AU26" s="39"/>
+      <c r="AV26" s="39"/>
+      <c r="AW26" s="39"/>
+      <c r="AX26" s="39"/>
+      <c r="AY26" s="39"/>
+      <c r="AZ26" s="39"/>
+      <c r="BA26" s="39"/>
+      <c r="BB26" s="39"/>
+      <c r="BC26" s="39"/>
+      <c r="BD26" s="39"/>
+      <c r="BE26" s="39"/>
+      <c r="BF26" s="39"/>
+      <c r="BG26" s="39"/>
+      <c r="BH26" s="39"/>
+      <c r="BI26" s="39"/>
+      <c r="BJ26" s="39"/>
+      <c r="BK26" s="39"/>
+      <c r="BL26" s="39"/>
+    </row>
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="75"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="41"/>
-      <c r="AI22" s="41"/>
-      <c r="AJ22" s="41"/>
-      <c r="AK22" s="41"/>
-      <c r="AL22" s="41"/>
-      <c r="AM22" s="41"/>
-      <c r="AN22" s="41"/>
-      <c r="AO22" s="41"/>
-      <c r="AP22" s="41"/>
-      <c r="AQ22" s="41"/>
-      <c r="AR22" s="41"/>
-      <c r="AS22" s="41"/>
-      <c r="AT22" s="41"/>
-      <c r="AU22" s="41"/>
-      <c r="AV22" s="41"/>
-      <c r="AW22" s="41"/>
-      <c r="AX22" s="41"/>
-      <c r="AY22" s="41"/>
-      <c r="AZ22" s="41"/>
-      <c r="BA22" s="41"/>
-      <c r="BB22" s="41"/>
-      <c r="BC22" s="41"/>
-      <c r="BD22" s="41"/>
-      <c r="BE22" s="41"/>
-      <c r="BF22" s="41"/>
-      <c r="BG22" s="41"/>
-      <c r="BH22" s="41"/>
-      <c r="BI22" s="41"/>
-      <c r="BJ22" s="41"/>
-      <c r="BK22" s="41"/>
-      <c r="BL22" s="41"/>
-    </row>
-    <row r="23" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="14"/>
-      <c r="F24" s="55"/>
-    </row>
-    <row r="25" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="15"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="39"/>
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="39"/>
+      <c r="AJ27" s="39"/>
+      <c r="AK27" s="39"/>
+      <c r="AL27" s="39"/>
+      <c r="AM27" s="39"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="39"/>
+      <c r="AP27" s="39"/>
+      <c r="AQ27" s="39"/>
+      <c r="AR27" s="39"/>
+      <c r="AS27" s="39"/>
+      <c r="AT27" s="39"/>
+      <c r="AU27" s="39"/>
+      <c r="AV27" s="39"/>
+      <c r="AW27" s="39"/>
+      <c r="AX27" s="39"/>
+      <c r="AY27" s="39"/>
+      <c r="AZ27" s="39"/>
+      <c r="BA27" s="39"/>
+      <c r="BB27" s="39"/>
+      <c r="BC27" s="39"/>
+      <c r="BD27" s="39"/>
+      <c r="BE27" s="39"/>
+      <c r="BF27" s="39"/>
+      <c r="BG27" s="39"/>
+      <c r="BH27" s="39"/>
+      <c r="BI27" s="39"/>
+      <c r="BJ27" s="39"/>
+      <c r="BK27" s="39"/>
+      <c r="BL27" s="39"/>
+    </row>
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="41"/>
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="41"/>
+      <c r="AC28" s="41"/>
+      <c r="AD28" s="41"/>
+      <c r="AE28" s="41"/>
+      <c r="AF28" s="41"/>
+      <c r="AG28" s="41"/>
+      <c r="AH28" s="41"/>
+      <c r="AI28" s="41"/>
+      <c r="AJ28" s="41"/>
+      <c r="AK28" s="41"/>
+      <c r="AL28" s="41"/>
+      <c r="AM28" s="41"/>
+      <c r="AN28" s="41"/>
+      <c r="AO28" s="41"/>
+      <c r="AP28" s="41"/>
+      <c r="AQ28" s="41"/>
+      <c r="AR28" s="41"/>
+      <c r="AS28" s="41"/>
+      <c r="AT28" s="41"/>
+      <c r="AU28" s="41"/>
+      <c r="AV28" s="41"/>
+      <c r="AW28" s="41"/>
+      <c r="AX28" s="41"/>
+      <c r="AY28" s="41"/>
+      <c r="AZ28" s="41"/>
+      <c r="BA28" s="41"/>
+      <c r="BB28" s="41"/>
+      <c r="BC28" s="41"/>
+      <c r="BD28" s="41"/>
+      <c r="BE28" s="41"/>
+      <c r="BF28" s="41"/>
+      <c r="BG28" s="41"/>
+      <c r="BH28" s="41"/>
+      <c r="BI28" s="41"/>
+      <c r="BJ28" s="41"/>
+      <c r="BK28" s="41"/>
+      <c r="BL28" s="41"/>
+    </row>
+    <row r="29" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="14"/>
+      <c r="F30" s="55"/>
+    </row>
+    <row r="31" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -3304,13 +3829,8 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D22">
+  <conditionalFormatting sqref="D7:D28">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3324,12 +3844,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL22">
+  <conditionalFormatting sqref="I5:BL28">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL22">
+  <conditionalFormatting sqref="I7:BL28">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -3353,7 +3873,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F20" formula="1"/>
+    <ignoredError sqref="F21" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3371,7 +3891,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D22</xm:sqref>
+          <xm:sqref>D7:D28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
